--- a/RobotRevisalManager/Data/Config.xlsx
+++ b/RobotRevisalManager/Data/Config.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manuel\Documents\UiPath\RobotRevisalManager\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manuel\Documents\UiPath\RoboticEnterpriseFramework\RobotRevisalManager\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE4D096-8D37-4A62-B2AF-7ADF9FD8AB2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE6BDC8A-51A9-4C09-898E-00B0916C2C91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
   <si>
     <t>Name</t>
   </si>
@@ -124,9 +124,6 @@
     <t>OrchestratorAssetFolder</t>
   </si>
   <si>
-    <t>../RoboticEnterpriseFramework/Output.xlsx</t>
-  </si>
-  <si>
     <t>Excel_Input_Data_File</t>
   </si>
   <si>
@@ -134,6 +131,21 @@
   </si>
   <si>
     <t>Simple Fields</t>
+  </si>
+  <si>
+    <t>../RobotReaderForIDs/Output.xlsx</t>
+  </si>
+  <si>
+    <t>Employee_Default_Address</t>
+  </si>
+  <si>
+    <t>Strada Campului Nr. 266</t>
+  </si>
+  <si>
+    <t>Employee_Default_COR_code</t>
+  </si>
+  <si>
+    <t>Employee_Default_Salary</t>
   </si>
 </sst>
 </file>
@@ -1585,7 +1597,7 @@
   <dimension ref="A1:Z987"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -1711,23 +1723,44 @@
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s">
         <v>34</v>
       </c>
-      <c r="B12" t="s">
-        <v>35</v>
-      </c>
     </row>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="13" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14">
+        <v>111107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15">
+        <v>100</v>
+      </c>
+    </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
     <row r="18" ht="14.25" customHeight="1"/>

--- a/RobotRevisalManager/Data/Config.xlsx
+++ b/RobotRevisalManager/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manuel\Documents\UiPath\RoboticEnterpriseFramework\RobotRevisalManager\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE6BDC8A-51A9-4C09-898E-00B0916C2C91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8004925B-70FC-4668-BC62-388AC91B78B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
   <si>
     <t>Name</t>
   </si>
@@ -146,6 +146,18 @@
   </si>
   <si>
     <t>Employee_Default_Salary</t>
+  </si>
+  <si>
+    <t>ExceptionMessage_InvalidCNP</t>
+  </si>
+  <si>
+    <t>CNP invalid</t>
+  </si>
+  <si>
+    <t>ExceptionMessage_ExistingCNP</t>
+  </si>
+  <si>
+    <t>CNP already exist</t>
   </si>
 </sst>
 </file>
@@ -1597,7 +1609,7 @@
   <dimension ref="A1:Z987"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -1761,23 +1773,37 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="17" ht="14.25" customHeight="1"/>
-    <row r="18" ht="14.25" customHeight="1"/>
-    <row r="19" ht="14.25" customHeight="1"/>
-    <row r="20" ht="14.25" customHeight="1"/>
-    <row r="21" ht="14.25" customHeight="1"/>
-    <row r="22" ht="14.25" customHeight="1"/>
-    <row r="23" ht="14.25" customHeight="1"/>
-    <row r="24" ht="14.25" customHeight="1"/>
-    <row r="25" ht="14.25" customHeight="1"/>
-    <row r="26" ht="14.25" customHeight="1"/>
-    <row r="27" ht="14.25" customHeight="1"/>
-    <row r="28" ht="14.25" customHeight="1"/>
-    <row r="29" ht="14.25" customHeight="1"/>
-    <row r="30" ht="14.25" customHeight="1"/>
-    <row r="31" ht="14.25" customHeight="1"/>
-    <row r="32" ht="14.25" customHeight="1"/>
+    <row r="16" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="19" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="20" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="21" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="22" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="23" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="24" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="25" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="26" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="27" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="28" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="29" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="30" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="31" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="32" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>

--- a/RobotRevisalManager/Data/Config.xlsx
+++ b/RobotRevisalManager/Data/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manuel\Documents\UiPath\RoboticEnterpriseFramework\RobotRevisalManager\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VitaliCiupac\Documents\GitHub\automated-reading-of-identity-cards\RobotRevisalManager\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8004925B-70FC-4668-BC62-388AC91B78B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A22D7B94-9573-4717-996D-6217D0B0D993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
   <si>
     <t>Name</t>
   </si>
@@ -158,6 +158,12 @@
   </si>
   <si>
     <t>CNP already exist</t>
+  </si>
+  <si>
+    <t>revisalPath</t>
+  </si>
+  <si>
+    <t>C:\Program Files (x86)\TeamNet\ReviSal HG905-2017\teamnet.revisal.ui.exe</t>
   </si>
 </sst>
 </file>
@@ -237,7 +243,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Temă Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -535,16 +541,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.54296875" customWidth="1"/>
+    <col min="1" max="1" width="43.5546875" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="81.453125" customWidth="1"/>
-    <col min="4" max="26" width="8.7265625" customWidth="1"/>
+    <col min="3" max="3" width="81.44140625" customWidth="1"/>
+    <col min="4" max="26" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -593,7 +599,7 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="4" spans="1:26" ht="29">
+    <row r="4" spans="1:26" ht="28.8">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -605,7 +611,14 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+    </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1608,16 +1621,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z987"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="75.453125" customWidth="1"/>
-    <col min="4" max="26" width="8.7265625" customWidth="1"/>
+    <col min="3" max="3" width="75.44140625" customWidth="1"/>
+    <col min="4" max="26" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -1654,7 +1667,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="29">
+    <row r="2" spans="1:26" ht="28.8">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2773,12 +2786,12 @@
       <selection activeCell="C2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.81640625" customWidth="1"/>
-    <col min="2" max="2" width="30.1796875" customWidth="1"/>
-    <col min="3" max="3" width="60.26953125" customWidth="1"/>
-    <col min="4" max="26" width="65.453125" customWidth="1"/>
+    <col min="1" max="1" width="31.77734375" customWidth="1"/>
+    <col min="2" max="2" width="30.21875" customWidth="1"/>
+    <col min="3" max="3" width="60.21875" customWidth="1"/>
+    <col min="4" max="26" width="65.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">

--- a/RobotRevisalManager/Data/Config.xlsx
+++ b/RobotRevisalManager/Data/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VitaliCiupac\Documents\GitHub\automated-reading-of-identity-cards\RobotRevisalManager\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manuel\Documents\UiPath\RoboticEnterpriseFramework\RobotRevisalManager\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A22D7B94-9573-4717-996D-6217D0B0D993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B87F7D-0F0C-43BD-989F-EE463FA785C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
   <si>
     <t>Name</t>
   </si>
@@ -164,6 +164,12 @@
   </si>
   <si>
     <t>C:\Program Files (x86)\TeamNet\ReviSal HG905-2017\teamnet.revisal.ui.exe</t>
+  </si>
+  <si>
+    <t>Successful</t>
+  </si>
+  <si>
+    <t>Transaction_Successful</t>
   </si>
 </sst>
 </file>
@@ -243,7 +249,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Temă Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -541,16 +547,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.5546875" customWidth="1"/>
+    <col min="1" max="1" width="43.54296875" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="81.44140625" customWidth="1"/>
-    <col min="4" max="26" width="8.77734375" customWidth="1"/>
+    <col min="3" max="3" width="81.453125" customWidth="1"/>
+    <col min="4" max="26" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -599,7 +605,7 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="4" spans="1:26" ht="28.8">
+    <row r="4" spans="1:26" ht="29">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -1621,16 +1627,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z987"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="75.44140625" customWidth="1"/>
-    <col min="4" max="26" width="8.77734375" customWidth="1"/>
+    <col min="3" max="3" width="75.453125" customWidth="1"/>
+    <col min="4" max="26" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -1667,7 +1673,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="28.8">
+    <row r="2" spans="1:26" ht="29">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1802,7 +1808,14 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="18" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" t="s">
+        <v>46</v>
+      </c>
+    </row>
     <row r="19" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="20" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="21" spans="1:2" ht="14.25" customHeight="1"/>
@@ -2786,12 +2799,12 @@
       <selection activeCell="C2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.77734375" customWidth="1"/>
-    <col min="2" max="2" width="30.21875" customWidth="1"/>
-    <col min="3" max="3" width="60.21875" customWidth="1"/>
-    <col min="4" max="26" width="65.44140625" customWidth="1"/>
+    <col min="1" max="1" width="31.81640625" customWidth="1"/>
+    <col min="2" max="2" width="30.1796875" customWidth="1"/>
+    <col min="3" max="3" width="60.1796875" customWidth="1"/>
+    <col min="4" max="26" width="65.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
